--- a/output/nycmig_out_reg_boroughs_2016-2019_fam2.xlsx
+++ b/output/nycmig_out_reg_boroughs_2016-2019_fam2.xlsx
@@ -1,20 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dara/Documents/GitHub/pums/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21C0D64-DDD5-9F42-A118-0A6D069BD8B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1020" yWindow="3720" windowWidth="22540" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="7" r:id="rId3"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="94">
   <si>
     <t>id</t>
   </si>
@@ -248,13 +269,64 @@
   </si>
   <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Sum of out_pop</t>
+  </si>
+  <si>
+    <t>2016 Sum of out_pop</t>
+  </si>
+  <si>
+    <t>2016 Sum of out_famwt</t>
+  </si>
+  <si>
+    <t>2017 Sum of out_pop</t>
+  </si>
+  <si>
+    <t>2017 Sum of out_famwt</t>
+  </si>
+  <si>
+    <t>2018 Sum of out_pop</t>
+  </si>
+  <si>
+    <t>2018 Sum of out_famwt</t>
+  </si>
+  <si>
+    <t>2019 Sum of out_pop</t>
+  </si>
+  <si>
+    <t>2019 Sum of out_famwt</t>
+  </si>
+  <si>
+    <t>Total Sum of out_pop</t>
+  </si>
+  <si>
+    <t>Total Sum of out_famwt</t>
+  </si>
+  <si>
+    <t>Sum of out_famwt</t>
+  </si>
+  <si>
+    <t>Tot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,12 +343,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -306,10 +384,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -317,7 +407,1253 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44272.406099189815" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="60" xr:uid="{677C0352-A540-6844-952C-DD494FDCF439}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:K61" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="id" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="YEAR" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2016" maxValue="2019" count="4">
+        <n v="2016"/>
+        <n v="2017"/>
+        <n v="2018"/>
+        <n v="2019"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="out_stco" numFmtId="0">
+      <sharedItems count="5">
+        <s v="36005"/>
+        <s v="36047"/>
+        <s v="36061"/>
+        <s v="36081"/>
+        <s v="36085"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="in_reg" numFmtId="0">
+      <sharedItems count="3">
+        <s v="NYC"/>
+        <s v="Region"/>
+        <s v="US"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="out_pop" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2394" maxValue="137285" count="60">
+        <n v="65659"/>
+        <n v="12277"/>
+        <n v="17560"/>
+        <n v="137285"/>
+        <n v="17271"/>
+        <n v="46992"/>
+        <n v="78530"/>
+        <n v="18804"/>
+        <n v="30069"/>
+        <n v="81374"/>
+        <n v="31124"/>
+        <n v="28502"/>
+        <n v="15031"/>
+        <n v="2394"/>
+        <n v="8501"/>
+        <n v="62575"/>
+        <n v="15587"/>
+        <n v="21477"/>
+        <n v="115027"/>
+        <n v="20372"/>
+        <n v="46994"/>
+        <n v="87710"/>
+        <n v="23234"/>
+        <n v="28125"/>
+        <n v="96831"/>
+        <n v="31914"/>
+        <n v="30216"/>
+        <n v="20187"/>
+        <n v="4208"/>
+        <n v="4751"/>
+        <n v="55712"/>
+        <n v="16022"/>
+        <n v="22745"/>
+        <n v="129290"/>
+        <n v="26284"/>
+        <n v="43947"/>
+        <n v="89640"/>
+        <n v="20465"/>
+        <n v="31690"/>
+        <n v="94763"/>
+        <n v="33311"/>
+        <n v="32543"/>
+        <n v="11546"/>
+        <n v="2635"/>
+        <n v="7137"/>
+        <n v="66471"/>
+        <n v="18107"/>
+        <n v="15549"/>
+        <n v="136264"/>
+        <n v="20822"/>
+        <n v="41226"/>
+        <n v="94878"/>
+        <n v="24806"/>
+        <n v="33260"/>
+        <n v="107853"/>
+        <n v="35319"/>
+        <n v="24018"/>
+        <n v="13082"/>
+        <n v="5403"/>
+        <n v="2941"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="out_se" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="815.64425456199967" maxValue="7832.4468111823126"/>
+    </cacheField>
+    <cacheField name="out_moe" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1341.734798754489" maxValue="12884.375004394909"/>
+    </cacheField>
+    <cacheField name="out_cv" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.222033854521023" maxValue="23.314576199396829"/>
+    </cacheField>
+    <cacheField name="out_famwt" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="631" maxValue="50902" count="60">
+        <n v="21110"/>
+        <n v="3173"/>
+        <n v="4998"/>
+        <n v="47558"/>
+        <n v="4293"/>
+        <n v="14147"/>
+        <n v="29577"/>
+        <n v="5764"/>
+        <n v="10858"/>
+        <n v="25244"/>
+        <n v="11175"/>
+        <n v="7771"/>
+        <n v="5077"/>
+        <n v="631"/>
+        <n v="1687"/>
+        <n v="19935"/>
+        <n v="4435"/>
+        <n v="4788"/>
+        <n v="41857"/>
+        <n v="6418"/>
+        <n v="14344"/>
+        <n v="35309"/>
+        <n v="8108"/>
+        <n v="8531"/>
+        <n v="31464"/>
+        <n v="10394"/>
+        <n v="8385"/>
+        <n v="5811"/>
+        <n v="1640"/>
+        <n v="1534"/>
+        <n v="16232"/>
+        <n v="5968"/>
+        <n v="5501"/>
+        <n v="48490"/>
+        <n v="8625"/>
+        <n v="11851"/>
+        <n v="30844"/>
+        <n v="6705"/>
+        <n v="9845"/>
+        <n v="34932"/>
+        <n v="11847"/>
+        <n v="8284"/>
+        <n v="4356"/>
+        <n v="791"/>
+        <n v="1725"/>
+        <n v="23019"/>
+        <n v="5569"/>
+        <n v="5311"/>
+        <n v="50902"/>
+        <n v="6361"/>
+        <n v="10923"/>
+        <n v="35422"/>
+        <n v="8230"/>
+        <n v="10364"/>
+        <n v="34796"/>
+        <n v="10959"/>
+        <n v="8475"/>
+        <n v="2831"/>
+        <n v="1816"/>
+        <n v="835"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="out_avgfam" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.4840692174799628" maxValue="5.0391227030231178"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="60">
+  <r>
+    <s v="201636005NYC"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="6811.7577100187582"/>
+    <n v="11205.34143298086"/>
+    <n v="6.3066542985852054"/>
+    <x v="0"/>
+    <n v="3.110326859308385"/>
+  </r>
+  <r>
+    <s v="201636005Region"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2397.9554311955012"/>
+    <n v="3944.6366843165988"/>
+    <n v="11.8736146157876"/>
+    <x v="1"/>
+    <n v="3.869208950520012"/>
+  </r>
+  <r>
+    <s v="201636005US"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="2733.3955257152229"/>
+    <n v="4496.4356398015416"/>
+    <n v="9.4626344957634547"/>
+    <x v="2"/>
+    <n v="3.5134053621448582"/>
+  </r>
+  <r>
+    <s v="201636047NYC"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="7832.4468111823126"/>
+    <n v="12884.375004394909"/>
+    <n v="3.4682345796438221"/>
+    <x v="3"/>
+    <n v="2.88668573110728"/>
+  </r>
+  <r>
+    <s v="201636047Region"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="2872.498920800494"/>
+    <n v="4725.2607247168116"/>
+    <n v="10.11058972760352"/>
+    <x v="4"/>
+    <n v="4.0230607966457024"/>
+  </r>
+  <r>
+    <s v="201636047US"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="4854.6316904580926"/>
+    <n v="7985.8691308035623"/>
+    <n v="6.2800984950139513"/>
+    <x v="5"/>
+    <n v="3.3216936452958219"/>
+  </r>
+  <r>
+    <s v="201636061NYC"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="6042.5010384773623"/>
+    <n v="9939.9142082952603"/>
+    <n v="4.6775154857105408"/>
+    <x v="6"/>
+    <n v="2.6551036278189128"/>
+  </r>
+  <r>
+    <s v="201636061Region"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="2244.0422790134771"/>
+    <n v="3691.4495489771698"/>
+    <n v="7.2546236977758616"/>
+    <x v="7"/>
+    <n v="3.2623178348369191"/>
+  </r>
+  <r>
+    <s v="201636061US"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="3410.3811150661741"/>
+    <n v="5610.0769342838566"/>
+    <n v="6.8947421236448454"/>
+    <x v="8"/>
+    <n v="2.769294529379259"/>
+  </r>
+  <r>
+    <s v="201636081NYC"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="9"/>
+    <n v="6030.7439880996444"/>
+    <n v="9920.5738604239141"/>
+    <n v="4.5052544643764936"/>
+    <x v="9"/>
+    <n v="3.223498653145302"/>
+  </r>
+  <r>
+    <s v="201636081Region"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="3778.607415437597"/>
+    <n v="6215.809198394848"/>
+    <n v="7.3802396364880636"/>
+    <x v="10"/>
+    <n v="2.7851454138702461"/>
+  </r>
+  <r>
+    <s v="201636081US"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="3819.9367337692911"/>
+    <n v="6283.7959270504844"/>
+    <n v="8.1473229602600092"/>
+    <x v="11"/>
+    <n v="3.667739029725904"/>
+  </r>
+  <r>
+    <s v="201636085NYC"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="2098.6398809705302"/>
+    <n v="3452.2626041965209"/>
+    <n v="8.4875851546946031"/>
+    <x v="12"/>
+    <n v="2.9606066574748868"/>
+  </r>
+  <r>
+    <s v="201636085Region"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="918.15831968130635"/>
+    <n v="1510.3704358757491"/>
+    <n v="23.314576199396829"/>
+    <x v="13"/>
+    <n v="3.7939778129952462"/>
+  </r>
+  <r>
+    <s v="201636085US"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="14"/>
+    <n v="3018.0909197703108"/>
+    <n v="4964.7595630221613"/>
+    <n v="21.58223416426468"/>
+    <x v="14"/>
+    <n v="5.0391227030231178"/>
+  </r>
+  <r>
+    <s v="201736005NYC"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="15"/>
+    <n v="5525.4841914532708"/>
+    <n v="9089.4214949406305"/>
+    <n v="5.36788966087214"/>
+    <x v="15"/>
+    <n v="3.1389515926761971"/>
+  </r>
+  <r>
+    <s v="201736005Region"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="16"/>
+    <n v="2761.2119259484589"/>
+    <n v="4542.1936181852161"/>
+    <n v="10.76889897511608"/>
+    <x v="16"/>
+    <n v="3.5145434047350621"/>
+  </r>
+  <r>
+    <s v="201736005US"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="17"/>
+    <n v="3684.8890960244648"/>
+    <n v="6061.6425629602454"/>
+    <n v="10.430014255794569"/>
+    <x v="17"/>
+    <n v="4.4855889724310778"/>
+  </r>
+  <r>
+    <s v="201736047NYC"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="18"/>
+    <n v="6096.7136106266298"/>
+    <n v="10029.09388948081"/>
+    <n v="3.222033854521023"/>
+    <x v="18"/>
+    <n v="2.7480947033948921"/>
+  </r>
+  <r>
+    <s v="201736047Region"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="19"/>
+    <n v="2996.578999459216"/>
+    <n v="4929.3724541104111"/>
+    <n v="8.9418249121334554"/>
+    <x v="19"/>
+    <n v="3.1741975693362421"/>
+  </r>
+  <r>
+    <s v="201736047US"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="20"/>
+    <n v="5225.675965844036"/>
+    <n v="8596.2369638134387"/>
+    <n v="6.7598049001974836"/>
+    <x v="20"/>
+    <n v="3.2762130507529279"/>
+  </r>
+  <r>
+    <s v="201736061NYC"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="21"/>
+    <n v="5615.093320684884"/>
+    <n v="9236.8285125266339"/>
+    <n v="3.891723395373385"/>
+    <x v="21"/>
+    <n v="2.4840692174799628"/>
+  </r>
+  <r>
+    <s v="201736061Region"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="22"/>
+    <n v="2668.5413524995261"/>
+    <n v="4389.7505248617208"/>
+    <n v="6.9820676084428364"/>
+    <x v="22"/>
+    <n v="2.8655648741983231"/>
+  </r>
+  <r>
+    <s v="201736061US"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="23"/>
+    <n v="2908.8764841429761"/>
+    <n v="4785.1018164151947"/>
+    <n v="6.2873385675498286"/>
+    <x v="23"/>
+    <n v="3.2967999062243578"/>
+  </r>
+  <r>
+    <s v="201736081NYC"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="24"/>
+    <n v="7244.6516375875526"/>
+    <n v="11917.45194383152"/>
+    <n v="4.5481752214532971"/>
+    <x v="24"/>
+    <n v="3.0775171624713962"/>
+  </r>
+  <r>
+    <s v="201736081Region"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="25"/>
+    <n v="4012.6717346426431"/>
+    <n v="6600.8450034871476"/>
+    <n v="7.6433982716137816"/>
+    <x v="25"/>
+    <n v="3.0704252453338459"/>
+  </r>
+  <r>
+    <s v="201736081US"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="26"/>
+    <n v="3486.2357851986999"/>
+    <n v="5734.8578666518624"/>
+    <n v="7.0138081501108953"/>
+    <x v="26"/>
+    <n v="3.6035778175313058"/>
+  </r>
+  <r>
+    <s v="201736085NYC"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="27"/>
+    <n v="3246.8524527609811"/>
+    <n v="5341.0722847918141"/>
+    <n v="9.7774334373636318"/>
+    <x v="27"/>
+    <n v="3.4739287558079499"/>
+  </r>
+  <r>
+    <s v="201736085Region"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="28"/>
+    <n v="1264.3979990493499"/>
+    <n v="2079.9347084361812"/>
+    <n v="18.265945875988852"/>
+    <x v="28"/>
+    <n v="2.565853658536585"/>
+  </r>
+  <r>
+    <s v="201736085US"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="29"/>
+    <n v="1137.9702544442889"/>
+    <n v="1871.9610685608559"/>
+    <n v="14.56062367217894"/>
+    <x v="29"/>
+    <n v="3.0971316818774448"/>
+  </r>
+  <r>
+    <s v="201836005NYC"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="30"/>
+    <n v="6173.8337765119659"/>
+    <n v="10155.95656236218"/>
+    <n v="6.7365925503457271"/>
+    <x v="30"/>
+    <n v="3.432232626909808"/>
+  </r>
+  <r>
+    <s v="201836005Region"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="31"/>
+    <n v="2357.0520995514721"/>
+    <n v="3877.3507037621712"/>
+    <n v="8.9430684008252772"/>
+    <x v="31"/>
+    <n v="2.6846514745308312"/>
+  </r>
+  <r>
+    <s v="201836005US"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="32"/>
+    <n v="3929.3112882539599"/>
+    <n v="6463.7170691777646"/>
+    <n v="10.501820536405569"/>
+    <x v="32"/>
+    <n v="4.1347027813124884"/>
+  </r>
+  <r>
+    <s v="201836047NYC"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="33"/>
+    <n v="7407.7424023787426"/>
+    <n v="12185.736251913029"/>
+    <n v="3.4830125073454692"/>
+    <x v="33"/>
+    <n v="2.6663229531862238"/>
+  </r>
+  <r>
+    <s v="201836047Region"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="34"/>
+    <n v="3775.1006079308672"/>
+    <n v="6210.0405000462761"/>
+    <n v="8.7311443714203065"/>
+    <x v="34"/>
+    <n v="3.0474202898550731"/>
+  </r>
+  <r>
+    <s v="201836047US"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="35"/>
+    <n v="5094.3222463837128"/>
+    <n v="8380.1600953012075"/>
+    <n v="7.0467891537820364"/>
+    <x v="35"/>
+    <n v="3.708294658678593"/>
+  </r>
+  <r>
+    <s v="201836061NYC"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="36"/>
+    <n v="7657.3209218368274"/>
+    <n v="12596.29291642158"/>
+    <n v="5.1928897093519826"/>
+    <x v="36"/>
+    <n v="2.9062378420438328"/>
+  </r>
+  <r>
+    <s v="201836061Region"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="37"/>
+    <n v="1954.069919424584"/>
+    <n v="3214.4450174534409"/>
+    <n v="5.8044683581638266"/>
+    <x v="37"/>
+    <n v="3.0521998508575692"/>
+  </r>
+  <r>
+    <s v="201836061US"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="38"/>
+    <n v="3160.4409502472909"/>
+    <n v="5198.9253631567944"/>
+    <n v="6.0626087069689953"/>
+    <x v="38"/>
+    <n v="3.218892839004571"/>
+  </r>
+  <r>
+    <s v="201836081NYC"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="39"/>
+    <n v="5718.1522977269506"/>
+    <n v="9406.3605297608337"/>
+    <n v="3.668183177136775"/>
+    <x v="39"/>
+    <n v="2.7127848391159972"/>
+  </r>
+  <r>
+    <s v="201836081Region"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="40"/>
+    <n v="4197.7720876674566"/>
+    <n v="6905.3350842129666"/>
+    <n v="7.6606440375856506"/>
+    <x v="40"/>
+    <n v="2.8117666919895332"/>
+  </r>
+  <r>
+    <s v="201836081US"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="41"/>
+    <n v="3720.7484932470238"/>
+    <n v="6120.6312713913539"/>
+    <n v="6.9503524179830034"/>
+    <x v="41"/>
+    <n v="3.9284162240463538"/>
+  </r>
+  <r>
+    <s v="201836085NYC"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="42"/>
+    <n v="2145.3369781924698"/>
+    <n v="3529.0793291266141"/>
+    <n v="11.295307619488851"/>
+    <x v="42"/>
+    <n v="2.6505968778696052"/>
+  </r>
+  <r>
+    <s v="201836085Region"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="43"/>
+    <n v="828.81481646987947"/>
+    <n v="1363.4003730929519"/>
+    <n v="19.121016857935999"/>
+    <x v="43"/>
+    <n v="3.3312262958280661"/>
+  </r>
+  <r>
+    <s v="201836085US"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="44"/>
+    <n v="2147.5528747856242"/>
+    <n v="3532.7244790223522"/>
+    <n v="18.292045219936721"/>
+    <x v="44"/>
+    <n v="4.1373913043478261"/>
+  </r>
+  <r>
+    <s v="201936005NYC"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="45"/>
+    <n v="5954.7078979577154"/>
+    <n v="9795.4944921404422"/>
+    <n v="5.445808278261179"/>
+    <x v="45"/>
+    <n v="2.887658021634302"/>
+  </r>
+  <r>
+    <s v="201936005Region"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="46"/>
+    <n v="2958.8779545631819"/>
+    <n v="4867.3542352564345"/>
+    <n v="9.9337825303693084"/>
+    <x v="46"/>
+    <n v="3.251391632249955"/>
+  </r>
+  <r>
+    <s v="201936005US"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="47"/>
+    <n v="2737.4604654679488"/>
+    <n v="4503.1224656947761"/>
+    <n v="10.702358386080389"/>
+    <x v="47"/>
+    <n v="2.927697232159669"/>
+  </r>
+  <r>
+    <s v="201936047NYC"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="48"/>
+    <n v="7638.5231229603542"/>
+    <n v="12565.37053726978"/>
+    <n v="3.4077079067865021"/>
+    <x v="48"/>
+    <n v="2.676987151781856"/>
+  </r>
+  <r>
+    <s v="201936047Region"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="49"/>
+    <n v="2865.9168428270909"/>
+    <n v="4714.4332064505643"/>
+    <n v="8.3671054108572065"/>
+    <x v="49"/>
+    <n v="3.2733846879421469"/>
+  </r>
+  <r>
+    <s v="201936047US"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="50"/>
+    <n v="5153.5525902041591"/>
+    <n v="8477.5940108858413"/>
+    <n v="7.5992303824027001"/>
+    <x v="50"/>
+    <n v="3.774237846745399"/>
+  </r>
+  <r>
+    <s v="201936061NYC"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="51"/>
+    <n v="6491.6987299165376"/>
+    <n v="10678.844410712711"/>
+    <n v="4.1593640426259384"/>
+    <x v="51"/>
+    <n v="2.678504883970414"/>
+  </r>
+  <r>
+    <s v="201936061Region"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="52"/>
+    <n v="4024.8845014484582"/>
+    <n v="6620.9350048827127"/>
+    <n v="9.8634939077354744"/>
+    <x v="52"/>
+    <n v="3.0140947752126368"/>
+  </r>
+  <r>
+    <s v="201936061US"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="53"/>
+    <n v="4142.8702550285107"/>
+    <n v="6815.0215695219003"/>
+    <n v="7.5720449822957212"/>
+    <x v="53"/>
+    <n v="3.2091856426090311"/>
+  </r>
+  <r>
+    <s v="201936081NYC"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="54"/>
+    <n v="7624.0833612966226"/>
+    <n v="12541.617129332941"/>
+    <n v="4.2972389562527784"/>
+    <x v="54"/>
+    <n v="3.0995804115415559"/>
+  </r>
+  <r>
+    <s v="201936081Region"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="55"/>
+    <n v="4281.5549745390399"/>
+    <n v="7043.1579331167204"/>
+    <n v="7.3693167458951239"/>
+    <x v="55"/>
+    <n v="3.2228305502326848"/>
+  </r>
+  <r>
+    <s v="201936081US"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="56"/>
+    <n v="3007.5314046573149"/>
+    <n v="4947.3891606612833"/>
+    <n v="7.6121515870627796"/>
+    <x v="56"/>
+    <n v="2.8339823008849558"/>
+  </r>
+  <r>
+    <s v="201936085NYC"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="57"/>
+    <n v="3509.7936691492282"/>
+    <n v="5773.6105857504799"/>
+    <n v="16.309533502026401"/>
+    <x v="57"/>
+    <n v="4.6209819851642528"/>
+  </r>
+  <r>
+    <s v="201936085Region"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="58"/>
+    <n v="1777.9541754499751"/>
+    <n v="2924.734618615209"/>
+    <n v="20.004131167138091"/>
+    <x v="58"/>
+    <n v="2.9752202643171808"/>
+  </r>
+  <r>
+    <s v="201936085US"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="59"/>
+    <n v="815.64425456199967"/>
+    <n v="1341.734798754489"/>
+    <n v="16.859312260928959"/>
+    <x v="59"/>
+    <n v="3.522155688622755"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3CBFD494-9484-9741-8072-8036FD04453E}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:AI12" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="61">
+        <item x="13"/>
+        <item x="43"/>
+        <item x="59"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="58"/>
+        <item x="44"/>
+        <item x="14"/>
+        <item x="42"/>
+        <item x="1"/>
+        <item x="57"/>
+        <item x="12"/>
+        <item x="47"/>
+        <item x="16"/>
+        <item x="31"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="46"/>
+        <item x="7"/>
+        <item x="27"/>
+        <item x="19"/>
+        <item x="37"/>
+        <item x="49"/>
+        <item x="17"/>
+        <item x="32"/>
+        <item x="22"/>
+        <item x="56"/>
+        <item x="52"/>
+        <item x="34"/>
+        <item x="23"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="26"/>
+        <item x="10"/>
+        <item x="38"/>
+        <item x="25"/>
+        <item x="41"/>
+        <item x="53"/>
+        <item x="40"/>
+        <item x="55"/>
+        <item x="50"/>
+        <item x="35"/>
+        <item x="5"/>
+        <item x="20"/>
+        <item x="30"/>
+        <item x="15"/>
+        <item x="0"/>
+        <item x="45"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="21"/>
+        <item x="36"/>
+        <item x="39"/>
+        <item x="51"/>
+        <item x="24"/>
+        <item x="54"/>
+        <item x="18"/>
+        <item x="33"/>
+        <item x="48"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="61">
+        <item x="13"/>
+        <item x="43"/>
+        <item x="59"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="14"/>
+        <item x="44"/>
+        <item x="58"/>
+        <item x="57"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="42"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="2"/>
+        <item x="12"/>
+        <item x="47"/>
+        <item x="32"/>
+        <item x="46"/>
+        <item x="7"/>
+        <item x="27"/>
+        <item x="31"/>
+        <item x="49"/>
+        <item x="19"/>
+        <item x="37"/>
+        <item x="11"/>
+        <item x="22"/>
+        <item x="52"/>
+        <item x="41"/>
+        <item x="26"/>
+        <item x="56"/>
+        <item x="23"/>
+        <item x="34"/>
+        <item x="38"/>
+        <item x="53"/>
+        <item x="25"/>
+        <item x="8"/>
+        <item x="50"/>
+        <item x="55"/>
+        <item x="10"/>
+        <item x="40"/>
+        <item x="35"/>
+        <item x="5"/>
+        <item x="20"/>
+        <item x="30"/>
+        <item x="15"/>
+        <item x="0"/>
+        <item x="45"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="36"/>
+        <item x="24"/>
+        <item x="54"/>
+        <item x="39"/>
+        <item x="21"/>
+        <item x="51"/>
+        <item x="18"/>
+        <item x="3"/>
+        <item x="33"/>
+        <item x="48"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="3">
+    <field x="1"/>
+    <field x="3"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="34">
+    <i>
+      <x/>
+      <x/>
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i t="default" i="1">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i t="default" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i t="default" i="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x/>
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="2" i="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i t="default" i="1">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of out_pop" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of out_famwt" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,7 +1699,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,9 +1731,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,6 +1783,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -604,14 +1976,2145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C39F6CB-B652-AC42-AC87-915196366464}">
+  <dimension ref="A3:AI39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2016</v>
+      </c>
+      <c r="H4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4">
+        <v>2017</v>
+      </c>
+      <c r="P4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4">
+        <v>2018</v>
+      </c>
+      <c r="X4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z4">
+        <v>2019</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R5" t="s">
+        <v>75</v>
+      </c>
+      <c r="T5" t="s">
+        <v>76</v>
+      </c>
+      <c r="V5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" t="s">
+        <v>81</v>
+      </c>
+      <c r="S6" t="s">
+        <v>92</v>
+      </c>
+      <c r="T6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U6" t="s">
+        <v>92</v>
+      </c>
+      <c r="V6" t="s">
+        <v>81</v>
+      </c>
+      <c r="W6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="4">
+        <v>65659</v>
+      </c>
+      <c r="C7" s="4">
+        <v>21110</v>
+      </c>
+      <c r="D7" s="4">
+        <v>12277</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3173</v>
+      </c>
+      <c r="F7" s="4">
+        <v>17560</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4998</v>
+      </c>
+      <c r="H7" s="4">
+        <v>95496</v>
+      </c>
+      <c r="I7" s="4">
+        <v>29281</v>
+      </c>
+      <c r="J7" s="4">
+        <v>62575</v>
+      </c>
+      <c r="K7" s="4">
+        <v>19935</v>
+      </c>
+      <c r="L7" s="4">
+        <v>15587</v>
+      </c>
+      <c r="M7" s="4">
+        <v>4435</v>
+      </c>
+      <c r="N7" s="4">
+        <v>21477</v>
+      </c>
+      <c r="O7" s="4">
+        <v>4788</v>
+      </c>
+      <c r="P7" s="4">
+        <v>99639</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>29158</v>
+      </c>
+      <c r="R7" s="4">
+        <v>55712</v>
+      </c>
+      <c r="S7" s="4">
+        <v>16232</v>
+      </c>
+      <c r="T7" s="4">
+        <v>16022</v>
+      </c>
+      <c r="U7" s="4">
+        <v>5968</v>
+      </c>
+      <c r="V7" s="4">
+        <v>22745</v>
+      </c>
+      <c r="W7" s="4">
+        <v>5501</v>
+      </c>
+      <c r="X7" s="4">
+        <v>94479</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>27701</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>66471</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>23019</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>18107</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>5569</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>15549</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>5311</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>100127</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>33899</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>389741</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>120039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="4">
+        <v>137285</v>
+      </c>
+      <c r="C8" s="4">
+        <v>47558</v>
+      </c>
+      <c r="D8" s="4">
+        <v>17271</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4293</v>
+      </c>
+      <c r="F8" s="4">
+        <v>46992</v>
+      </c>
+      <c r="G8" s="4">
+        <v>14147</v>
+      </c>
+      <c r="H8" s="4">
+        <v>201548</v>
+      </c>
+      <c r="I8" s="4">
+        <v>65998</v>
+      </c>
+      <c r="J8" s="4">
+        <v>115027</v>
+      </c>
+      <c r="K8" s="4">
+        <v>41857</v>
+      </c>
+      <c r="L8" s="4">
+        <v>20372</v>
+      </c>
+      <c r="M8" s="4">
+        <v>6418</v>
+      </c>
+      <c r="N8" s="4">
+        <v>46994</v>
+      </c>
+      <c r="O8" s="4">
+        <v>14344</v>
+      </c>
+      <c r="P8" s="4">
+        <v>182393</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>62619</v>
+      </c>
+      <c r="R8" s="4">
+        <v>129290</v>
+      </c>
+      <c r="S8" s="4">
+        <v>48490</v>
+      </c>
+      <c r="T8" s="4">
+        <v>26284</v>
+      </c>
+      <c r="U8" s="4">
+        <v>8625</v>
+      </c>
+      <c r="V8" s="4">
+        <v>43947</v>
+      </c>
+      <c r="W8" s="4">
+        <v>11851</v>
+      </c>
+      <c r="X8" s="4">
+        <v>199521</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>68966</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>136264</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>50902</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>20822</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>6361</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>41226</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>10923</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>198312</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>68186</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>781774</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>265769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="4">
+        <v>78530</v>
+      </c>
+      <c r="C9" s="4">
+        <v>29577</v>
+      </c>
+      <c r="D9" s="4">
+        <v>18804</v>
+      </c>
+      <c r="E9" s="4">
+        <v>5764</v>
+      </c>
+      <c r="F9" s="4">
+        <v>30069</v>
+      </c>
+      <c r="G9" s="4">
+        <v>10858</v>
+      </c>
+      <c r="H9" s="4">
+        <v>127403</v>
+      </c>
+      <c r="I9" s="4">
+        <v>46199</v>
+      </c>
+      <c r="J9" s="4">
+        <v>87710</v>
+      </c>
+      <c r="K9" s="4">
+        <v>35309</v>
+      </c>
+      <c r="L9" s="4">
+        <v>23234</v>
+      </c>
+      <c r="M9" s="4">
+        <v>8108</v>
+      </c>
+      <c r="N9" s="4">
+        <v>28125</v>
+      </c>
+      <c r="O9" s="4">
+        <v>8531</v>
+      </c>
+      <c r="P9" s="4">
+        <v>139069</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>51948</v>
+      </c>
+      <c r="R9" s="4">
+        <v>89640</v>
+      </c>
+      <c r="S9" s="4">
+        <v>30844</v>
+      </c>
+      <c r="T9" s="4">
+        <v>20465</v>
+      </c>
+      <c r="U9" s="4">
+        <v>6705</v>
+      </c>
+      <c r="V9" s="4">
+        <v>31690</v>
+      </c>
+      <c r="W9" s="4">
+        <v>9845</v>
+      </c>
+      <c r="X9" s="4">
+        <v>141795</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>47394</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>94878</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>35422</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>24806</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>8230</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>33260</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>10364</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>152944</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>54016</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>561211</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>199557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="4">
+        <v>81374</v>
+      </c>
+      <c r="C10" s="4">
+        <v>25244</v>
+      </c>
+      <c r="D10" s="4">
+        <v>31124</v>
+      </c>
+      <c r="E10" s="4">
+        <v>11175</v>
+      </c>
+      <c r="F10" s="4">
+        <v>28502</v>
+      </c>
+      <c r="G10" s="4">
+        <v>7771</v>
+      </c>
+      <c r="H10" s="4">
+        <v>141000</v>
+      </c>
+      <c r="I10" s="4">
+        <v>44190</v>
+      </c>
+      <c r="J10" s="4">
+        <v>96831</v>
+      </c>
+      <c r="K10" s="4">
+        <v>31464</v>
+      </c>
+      <c r="L10" s="4">
+        <v>31914</v>
+      </c>
+      <c r="M10" s="4">
+        <v>10394</v>
+      </c>
+      <c r="N10" s="4">
+        <v>30216</v>
+      </c>
+      <c r="O10" s="4">
+        <v>8385</v>
+      </c>
+      <c r="P10" s="4">
+        <v>158961</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>50243</v>
+      </c>
+      <c r="R10" s="4">
+        <v>94763</v>
+      </c>
+      <c r="S10" s="4">
+        <v>34932</v>
+      </c>
+      <c r="T10" s="4">
+        <v>33311</v>
+      </c>
+      <c r="U10" s="4">
+        <v>11847</v>
+      </c>
+      <c r="V10" s="4">
+        <v>32543</v>
+      </c>
+      <c r="W10" s="4">
+        <v>8284</v>
+      </c>
+      <c r="X10" s="4">
+        <v>160617</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>55063</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>107853</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>34796</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>35319</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>10959</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>24018</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>8475</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>167190</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>54230</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>627768</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>203726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="4">
+        <v>15031</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5077</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2394</v>
+      </c>
+      <c r="E11" s="4">
+        <v>631</v>
+      </c>
+      <c r="F11" s="4">
+        <v>8501</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1687</v>
+      </c>
+      <c r="H11" s="4">
+        <v>25926</v>
+      </c>
+      <c r="I11" s="4">
+        <v>7395</v>
+      </c>
+      <c r="J11" s="4">
+        <v>20187</v>
+      </c>
+      <c r="K11" s="4">
+        <v>5811</v>
+      </c>
+      <c r="L11" s="4">
+        <v>4208</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1640</v>
+      </c>
+      <c r="N11" s="4">
+        <v>4751</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1534</v>
+      </c>
+      <c r="P11" s="4">
+        <v>29146</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>8985</v>
+      </c>
+      <c r="R11" s="4">
+        <v>11546</v>
+      </c>
+      <c r="S11" s="4">
+        <v>4356</v>
+      </c>
+      <c r="T11" s="4">
+        <v>2635</v>
+      </c>
+      <c r="U11" s="4">
+        <v>791</v>
+      </c>
+      <c r="V11" s="4">
+        <v>7137</v>
+      </c>
+      <c r="W11" s="4">
+        <v>1725</v>
+      </c>
+      <c r="X11" s="4">
+        <v>21318</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>6872</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>13082</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>2831</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>5403</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>1816</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>2941</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>835</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>21426</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>5482</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>97816</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>28734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="4">
+        <v>377879</v>
+      </c>
+      <c r="C12" s="4">
+        <v>128566</v>
+      </c>
+      <c r="D12" s="4">
+        <v>81870</v>
+      </c>
+      <c r="E12" s="4">
+        <v>25036</v>
+      </c>
+      <c r="F12" s="4">
+        <v>131624</v>
+      </c>
+      <c r="G12" s="4">
+        <v>39461</v>
+      </c>
+      <c r="H12" s="4">
+        <v>591373</v>
+      </c>
+      <c r="I12" s="4">
+        <v>193063</v>
+      </c>
+      <c r="J12" s="4">
+        <v>382330</v>
+      </c>
+      <c r="K12" s="4">
+        <v>134376</v>
+      </c>
+      <c r="L12" s="4">
+        <v>95315</v>
+      </c>
+      <c r="M12" s="4">
+        <v>30995</v>
+      </c>
+      <c r="N12" s="4">
+        <v>131563</v>
+      </c>
+      <c r="O12" s="4">
+        <v>37582</v>
+      </c>
+      <c r="P12" s="4">
+        <v>609208</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>202953</v>
+      </c>
+      <c r="R12" s="4">
+        <v>380951</v>
+      </c>
+      <c r="S12" s="4">
+        <v>134854</v>
+      </c>
+      <c r="T12" s="4">
+        <v>98717</v>
+      </c>
+      <c r="U12" s="4">
+        <v>33936</v>
+      </c>
+      <c r="V12" s="4">
+        <v>138062</v>
+      </c>
+      <c r="W12" s="4">
+        <v>37206</v>
+      </c>
+      <c r="X12" s="4">
+        <v>617730</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>205996</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>418548</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>146970</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>104457</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>32935</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>116994</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>35908</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>639999</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>215813</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>2458310</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>817825</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>2016</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17">
+        <v>2017</v>
+      </c>
+      <c r="P17" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>85</v>
+      </c>
+      <c r="R17">
+        <v>2018</v>
+      </c>
+      <c r="X17" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z17">
+        <v>2019</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" t="s">
+        <v>76</v>
+      </c>
+      <c r="N18" t="s">
+        <v>77</v>
+      </c>
+      <c r="R18" t="s">
+        <v>75</v>
+      </c>
+      <c r="T18" t="s">
+        <v>76</v>
+      </c>
+      <c r="V18" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" t="s">
+        <v>81</v>
+      </c>
+      <c r="M19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N19" t="s">
+        <v>81</v>
+      </c>
+      <c r="O19" t="s">
+        <v>92</v>
+      </c>
+      <c r="R19" t="s">
+        <v>81</v>
+      </c>
+      <c r="S19" t="s">
+        <v>92</v>
+      </c>
+      <c r="T19" t="s">
+        <v>81</v>
+      </c>
+      <c r="U19" t="s">
+        <v>92</v>
+      </c>
+      <c r="V19" t="s">
+        <v>81</v>
+      </c>
+      <c r="W19" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20">
+        <v>65659</v>
+      </c>
+      <c r="C20">
+        <v>21110</v>
+      </c>
+      <c r="D20">
+        <v>12277</v>
+      </c>
+      <c r="E20">
+        <v>3173</v>
+      </c>
+      <c r="F20">
+        <v>17560</v>
+      </c>
+      <c r="G20">
+        <v>4998</v>
+      </c>
+      <c r="H20">
+        <v>95496</v>
+      </c>
+      <c r="I20">
+        <v>29281</v>
+      </c>
+      <c r="J20">
+        <v>62575</v>
+      </c>
+      <c r="K20">
+        <v>19935</v>
+      </c>
+      <c r="L20">
+        <v>15587</v>
+      </c>
+      <c r="M20">
+        <v>4435</v>
+      </c>
+      <c r="N20">
+        <v>21477</v>
+      </c>
+      <c r="O20">
+        <v>4788</v>
+      </c>
+      <c r="P20">
+        <v>99639</v>
+      </c>
+      <c r="Q20">
+        <v>29158</v>
+      </c>
+      <c r="R20">
+        <v>55712</v>
+      </c>
+      <c r="S20">
+        <v>16232</v>
+      </c>
+      <c r="T20">
+        <v>16022</v>
+      </c>
+      <c r="U20">
+        <v>5968</v>
+      </c>
+      <c r="V20">
+        <v>22745</v>
+      </c>
+      <c r="W20">
+        <v>5501</v>
+      </c>
+      <c r="X20">
+        <v>94479</v>
+      </c>
+      <c r="Y20">
+        <v>27701</v>
+      </c>
+      <c r="Z20">
+        <v>66471</v>
+      </c>
+      <c r="AA20">
+        <v>23019</v>
+      </c>
+      <c r="AB20">
+        <v>18107</v>
+      </c>
+      <c r="AC20">
+        <v>5569</v>
+      </c>
+      <c r="AD20">
+        <v>15549</v>
+      </c>
+      <c r="AE20">
+        <v>5311</v>
+      </c>
+      <c r="AF20">
+        <v>100127</v>
+      </c>
+      <c r="AG20">
+        <v>33899</v>
+      </c>
+      <c r="AH20">
+        <v>389741</v>
+      </c>
+      <c r="AI20">
+        <v>120039</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21">
+        <v>137285</v>
+      </c>
+      <c r="C21">
+        <v>47558</v>
+      </c>
+      <c r="D21">
+        <v>17271</v>
+      </c>
+      <c r="E21">
+        <v>4293</v>
+      </c>
+      <c r="F21">
+        <v>46992</v>
+      </c>
+      <c r="G21">
+        <v>14147</v>
+      </c>
+      <c r="H21">
+        <v>201548</v>
+      </c>
+      <c r="I21">
+        <v>65998</v>
+      </c>
+      <c r="J21">
+        <v>115027</v>
+      </c>
+      <c r="K21">
+        <v>41857</v>
+      </c>
+      <c r="L21">
+        <v>20372</v>
+      </c>
+      <c r="M21">
+        <v>6418</v>
+      </c>
+      <c r="N21">
+        <v>46994</v>
+      </c>
+      <c r="O21">
+        <v>14344</v>
+      </c>
+      <c r="P21">
+        <v>182393</v>
+      </c>
+      <c r="Q21">
+        <v>62619</v>
+      </c>
+      <c r="R21">
+        <v>129290</v>
+      </c>
+      <c r="S21">
+        <v>48490</v>
+      </c>
+      <c r="T21">
+        <v>26284</v>
+      </c>
+      <c r="U21">
+        <v>8625</v>
+      </c>
+      <c r="V21">
+        <v>43947</v>
+      </c>
+      <c r="W21">
+        <v>11851</v>
+      </c>
+      <c r="X21">
+        <v>199521</v>
+      </c>
+      <c r="Y21">
+        <v>68966</v>
+      </c>
+      <c r="Z21">
+        <v>136264</v>
+      </c>
+      <c r="AA21">
+        <v>50902</v>
+      </c>
+      <c r="AB21">
+        <v>20822</v>
+      </c>
+      <c r="AC21">
+        <v>6361</v>
+      </c>
+      <c r="AD21">
+        <v>41226</v>
+      </c>
+      <c r="AE21">
+        <v>10923</v>
+      </c>
+      <c r="AF21">
+        <v>198312</v>
+      </c>
+      <c r="AG21">
+        <v>68186</v>
+      </c>
+      <c r="AH21">
+        <v>781774</v>
+      </c>
+      <c r="AI21">
+        <v>265769</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22">
+        <v>78530</v>
+      </c>
+      <c r="C22">
+        <v>29577</v>
+      </c>
+      <c r="D22">
+        <v>18804</v>
+      </c>
+      <c r="E22">
+        <v>5764</v>
+      </c>
+      <c r="F22">
+        <v>30069</v>
+      </c>
+      <c r="G22">
+        <v>10858</v>
+      </c>
+      <c r="H22">
+        <v>127403</v>
+      </c>
+      <c r="I22">
+        <v>46199</v>
+      </c>
+      <c r="J22">
+        <v>87710</v>
+      </c>
+      <c r="K22">
+        <v>35309</v>
+      </c>
+      <c r="L22">
+        <v>23234</v>
+      </c>
+      <c r="M22">
+        <v>8108</v>
+      </c>
+      <c r="N22">
+        <v>28125</v>
+      </c>
+      <c r="O22">
+        <v>8531</v>
+      </c>
+      <c r="P22">
+        <v>139069</v>
+      </c>
+      <c r="Q22">
+        <v>51948</v>
+      </c>
+      <c r="R22">
+        <v>89640</v>
+      </c>
+      <c r="S22">
+        <v>30844</v>
+      </c>
+      <c r="T22">
+        <v>20465</v>
+      </c>
+      <c r="U22">
+        <v>6705</v>
+      </c>
+      <c r="V22">
+        <v>31690</v>
+      </c>
+      <c r="W22">
+        <v>9845</v>
+      </c>
+      <c r="X22">
+        <v>141795</v>
+      </c>
+      <c r="Y22">
+        <v>47394</v>
+      </c>
+      <c r="Z22">
+        <v>94878</v>
+      </c>
+      <c r="AA22">
+        <v>35422</v>
+      </c>
+      <c r="AB22">
+        <v>24806</v>
+      </c>
+      <c r="AC22">
+        <v>8230</v>
+      </c>
+      <c r="AD22">
+        <v>33260</v>
+      </c>
+      <c r="AE22">
+        <v>10364</v>
+      </c>
+      <c r="AF22">
+        <v>152944</v>
+      </c>
+      <c r="AG22">
+        <v>54016</v>
+      </c>
+      <c r="AH22">
+        <v>561211</v>
+      </c>
+      <c r="AI22">
+        <v>199557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23">
+        <v>81374</v>
+      </c>
+      <c r="C23">
+        <v>25244</v>
+      </c>
+      <c r="D23">
+        <v>31124</v>
+      </c>
+      <c r="E23">
+        <v>11175</v>
+      </c>
+      <c r="F23">
+        <v>28502</v>
+      </c>
+      <c r="G23">
+        <v>7771</v>
+      </c>
+      <c r="H23">
+        <v>141000</v>
+      </c>
+      <c r="I23">
+        <v>44190</v>
+      </c>
+      <c r="J23">
+        <v>96831</v>
+      </c>
+      <c r="K23">
+        <v>31464</v>
+      </c>
+      <c r="L23">
+        <v>31914</v>
+      </c>
+      <c r="M23">
+        <v>10394</v>
+      </c>
+      <c r="N23">
+        <v>30216</v>
+      </c>
+      <c r="O23">
+        <v>8385</v>
+      </c>
+      <c r="P23">
+        <v>158961</v>
+      </c>
+      <c r="Q23">
+        <v>50243</v>
+      </c>
+      <c r="R23">
+        <v>94763</v>
+      </c>
+      <c r="S23">
+        <v>34932</v>
+      </c>
+      <c r="T23">
+        <v>33311</v>
+      </c>
+      <c r="U23">
+        <v>11847</v>
+      </c>
+      <c r="V23">
+        <v>32543</v>
+      </c>
+      <c r="W23">
+        <v>8284</v>
+      </c>
+      <c r="X23">
+        <v>160617</v>
+      </c>
+      <c r="Y23">
+        <v>55063</v>
+      </c>
+      <c r="Z23">
+        <v>107853</v>
+      </c>
+      <c r="AA23">
+        <v>34796</v>
+      </c>
+      <c r="AB23">
+        <v>35319</v>
+      </c>
+      <c r="AC23">
+        <v>10959</v>
+      </c>
+      <c r="AD23">
+        <v>24018</v>
+      </c>
+      <c r="AE23">
+        <v>8475</v>
+      </c>
+      <c r="AF23">
+        <v>167190</v>
+      </c>
+      <c r="AG23">
+        <v>54230</v>
+      </c>
+      <c r="AH23">
+        <v>627768</v>
+      </c>
+      <c r="AI23">
+        <v>203726</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24">
+        <v>15031</v>
+      </c>
+      <c r="C24">
+        <v>5077</v>
+      </c>
+      <c r="D24">
+        <v>2394</v>
+      </c>
+      <c r="E24">
+        <v>631</v>
+      </c>
+      <c r="F24">
+        <v>8501</v>
+      </c>
+      <c r="G24">
+        <v>1687</v>
+      </c>
+      <c r="H24">
+        <v>25926</v>
+      </c>
+      <c r="I24">
+        <v>7395</v>
+      </c>
+      <c r="J24">
+        <v>20187</v>
+      </c>
+      <c r="K24">
+        <v>5811</v>
+      </c>
+      <c r="L24">
+        <v>4208</v>
+      </c>
+      <c r="M24">
+        <v>1640</v>
+      </c>
+      <c r="N24">
+        <v>4751</v>
+      </c>
+      <c r="O24">
+        <v>1534</v>
+      </c>
+      <c r="P24">
+        <v>29146</v>
+      </c>
+      <c r="Q24">
+        <v>8985</v>
+      </c>
+      <c r="R24">
+        <v>11546</v>
+      </c>
+      <c r="S24">
+        <v>4356</v>
+      </c>
+      <c r="T24">
+        <v>2635</v>
+      </c>
+      <c r="U24">
+        <v>791</v>
+      </c>
+      <c r="V24">
+        <v>7137</v>
+      </c>
+      <c r="W24">
+        <v>1725</v>
+      </c>
+      <c r="X24">
+        <v>21318</v>
+      </c>
+      <c r="Y24">
+        <v>6872</v>
+      </c>
+      <c r="Z24">
+        <v>13082</v>
+      </c>
+      <c r="AA24">
+        <v>2831</v>
+      </c>
+      <c r="AB24">
+        <v>5403</v>
+      </c>
+      <c r="AC24">
+        <v>1816</v>
+      </c>
+      <c r="AD24">
+        <v>2941</v>
+      </c>
+      <c r="AE24">
+        <v>835</v>
+      </c>
+      <c r="AF24">
+        <v>21426</v>
+      </c>
+      <c r="AG24">
+        <v>5482</v>
+      </c>
+      <c r="AH24">
+        <v>97816</v>
+      </c>
+      <c r="AI24">
+        <v>28734</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25">
+        <v>377879</v>
+      </c>
+      <c r="C25">
+        <v>128566</v>
+      </c>
+      <c r="D25">
+        <v>81870</v>
+      </c>
+      <c r="E25">
+        <v>25036</v>
+      </c>
+      <c r="F25">
+        <v>131624</v>
+      </c>
+      <c r="G25">
+        <v>39461</v>
+      </c>
+      <c r="H25">
+        <v>591373</v>
+      </c>
+      <c r="I25">
+        <v>193063</v>
+      </c>
+      <c r="J25">
+        <v>382330</v>
+      </c>
+      <c r="K25">
+        <v>134376</v>
+      </c>
+      <c r="L25">
+        <v>95315</v>
+      </c>
+      <c r="M25">
+        <v>30995</v>
+      </c>
+      <c r="N25">
+        <v>131563</v>
+      </c>
+      <c r="O25">
+        <v>37582</v>
+      </c>
+      <c r="P25">
+        <v>609208</v>
+      </c>
+      <c r="Q25">
+        <v>202953</v>
+      </c>
+      <c r="R25">
+        <v>380951</v>
+      </c>
+      <c r="S25">
+        <v>134854</v>
+      </c>
+      <c r="T25">
+        <v>98717</v>
+      </c>
+      <c r="U25">
+        <v>33936</v>
+      </c>
+      <c r="V25">
+        <v>138062</v>
+      </c>
+      <c r="W25">
+        <v>37206</v>
+      </c>
+      <c r="X25">
+        <v>617730</v>
+      </c>
+      <c r="Y25">
+        <v>205996</v>
+      </c>
+      <c r="Z25">
+        <v>418548</v>
+      </c>
+      <c r="AA25">
+        <v>146970</v>
+      </c>
+      <c r="AB25">
+        <v>104457</v>
+      </c>
+      <c r="AC25">
+        <v>32935</v>
+      </c>
+      <c r="AD25">
+        <v>116994</v>
+      </c>
+      <c r="AE25">
+        <v>35908</v>
+      </c>
+      <c r="AF25">
+        <v>639999</v>
+      </c>
+      <c r="AG25">
+        <v>215813</v>
+      </c>
+      <c r="AH25">
+        <v>2458310</v>
+      </c>
+      <c r="AI25">
+        <v>817825</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B32" s="9">
+        <v>2016</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9">
+        <v>2017</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9">
+        <v>2018</v>
+      </c>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9">
+        <v>2019</v>
+      </c>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J33" t="s">
+        <v>75</v>
+      </c>
+      <c r="K33" t="s">
+        <v>76</v>
+      </c>
+      <c r="L33" t="s">
+        <v>77</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N33" t="s">
+        <v>75</v>
+      </c>
+      <c r="O33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P33" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="7">
+        <f>B20/C20</f>
+        <v>3.1103268593083846</v>
+      </c>
+      <c r="C34" s="7">
+        <f>D20/E20</f>
+        <v>3.8692089505200125</v>
+      </c>
+      <c r="D34" s="7">
+        <f>F20/G20</f>
+        <v>3.5134053621448578</v>
+      </c>
+      <c r="E34" s="8">
+        <f>H20/I20</f>
+        <v>3.2613640244527167</v>
+      </c>
+      <c r="F34" s="7">
+        <f>J20/K20</f>
+        <v>3.1389515926761975</v>
+      </c>
+      <c r="G34" s="7">
+        <f>L20/M20</f>
+        <v>3.5145434047350621</v>
+      </c>
+      <c r="H34" s="7">
+        <f>N20/O20</f>
+        <v>4.4855889724310778</v>
+      </c>
+      <c r="I34" s="8">
+        <f>P20/Q20</f>
+        <v>3.4172096851635914</v>
+      </c>
+      <c r="J34" s="7">
+        <f>R20/S20</f>
+        <v>3.4322326269098076</v>
+      </c>
+      <c r="K34" s="7">
+        <f>T20/U20</f>
+        <v>2.6846514745308312</v>
+      </c>
+      <c r="L34" s="7">
+        <f>V20/W20</f>
+        <v>4.1347027813124884</v>
+      </c>
+      <c r="M34" s="8">
+        <f>X20/Y20</f>
+        <v>3.4106710949063213</v>
+      </c>
+      <c r="N34" s="7">
+        <f>Z20/AA20</f>
+        <v>2.887658021634302</v>
+      </c>
+      <c r="O34" s="7">
+        <f>AB20/AC20</f>
+        <v>3.251391632249955</v>
+      </c>
+      <c r="P34" s="7">
+        <f>AD20/AE20</f>
+        <v>2.9276972321596686</v>
+      </c>
+      <c r="Q34" s="6">
+        <f>AF20/AG20</f>
+        <v>2.9536859494380363</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="7">
+        <f t="shared" ref="B35:D39" si="0">B21/C21</f>
+        <v>2.8866857311072796</v>
+      </c>
+      <c r="C35" s="7">
+        <f>D21/E21</f>
+        <v>4.0230607966457024</v>
+      </c>
+      <c r="D35" s="7">
+        <f>F21/G21</f>
+        <v>3.3216936452958223</v>
+      </c>
+      <c r="E35" s="8">
+        <f>H21/I21</f>
+        <v>3.0538501166702021</v>
+      </c>
+      <c r="F35" s="7">
+        <f>J21/K21</f>
+        <v>2.7480947033948921</v>
+      </c>
+      <c r="G35" s="7">
+        <f>L21/M21</f>
+        <v>3.1741975693362416</v>
+      </c>
+      <c r="H35" s="7">
+        <f>N21/O21</f>
+        <v>3.2762130507529279</v>
+      </c>
+      <c r="I35" s="8">
+        <f>P21/Q21</f>
+        <v>2.9127421389674062</v>
+      </c>
+      <c r="J35" s="7">
+        <f>R21/S21</f>
+        <v>2.6663229531862238</v>
+      </c>
+      <c r="K35" s="7">
+        <f>T21/U21</f>
+        <v>3.0474202898550726</v>
+      </c>
+      <c r="L35" s="7">
+        <f>V21/W21</f>
+        <v>3.7082946586785925</v>
+      </c>
+      <c r="M35" s="8">
+        <f>X21/Y21</f>
+        <v>2.8930342487602587</v>
+      </c>
+      <c r="N35" s="7">
+        <f>Z21/AA21</f>
+        <v>2.6769871517818555</v>
+      </c>
+      <c r="O35" s="7">
+        <f>AB21/AC21</f>
+        <v>3.2733846879421473</v>
+      </c>
+      <c r="P35" s="7">
+        <f>AD21/AE21</f>
+        <v>3.7742378467453994</v>
+      </c>
+      <c r="Q35" s="6">
+        <f>AF21/AG21</f>
+        <v>2.908397618279412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="7">
+        <f t="shared" si="0"/>
+        <v>2.6551036278189133</v>
+      </c>
+      <c r="C36" s="7">
+        <f>D22/E22</f>
+        <v>3.2623178348369186</v>
+      </c>
+      <c r="D36" s="7">
+        <f>F22/G22</f>
+        <v>2.7692945293792595</v>
+      </c>
+      <c r="E36" s="8">
+        <f>H22/I22</f>
+        <v>2.7577003831251758</v>
+      </c>
+      <c r="F36" s="7">
+        <f>J22/K22</f>
+        <v>2.4840692174799628</v>
+      </c>
+      <c r="G36" s="7">
+        <f>L22/M22</f>
+        <v>2.8655648741983226</v>
+      </c>
+      <c r="H36" s="7">
+        <f>N22/O22</f>
+        <v>3.2967999062243583</v>
+      </c>
+      <c r="I36" s="8">
+        <f>P22/Q22</f>
+        <v>2.6770809270809273</v>
+      </c>
+      <c r="J36" s="7">
+        <f>R22/S22</f>
+        <v>2.9062378420438333</v>
+      </c>
+      <c r="K36" s="7">
+        <f>T22/U22</f>
+        <v>3.0521998508575692</v>
+      </c>
+      <c r="L36" s="7">
+        <f>V22/W22</f>
+        <v>3.218892839004571</v>
+      </c>
+      <c r="M36" s="8">
+        <f>X22/Y22</f>
+        <v>2.9918344094189138</v>
+      </c>
+      <c r="N36" s="7">
+        <f>Z22/AA22</f>
+        <v>2.678504883970414</v>
+      </c>
+      <c r="O36" s="7">
+        <f>AB22/AC22</f>
+        <v>3.0140947752126368</v>
+      </c>
+      <c r="P36" s="7">
+        <f>AD22/AE22</f>
+        <v>3.2091856426090311</v>
+      </c>
+      <c r="Q36" s="6">
+        <f>AF22/AG22</f>
+        <v>2.8314573459715642</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="7">
+        <f t="shared" si="0"/>
+        <v>3.223498653145302</v>
+      </c>
+      <c r="C37" s="7">
+        <f>D23/E23</f>
+        <v>2.7851454138702461</v>
+      </c>
+      <c r="D37" s="7">
+        <f>F23/G23</f>
+        <v>3.667739029725904</v>
+      </c>
+      <c r="E37" s="8">
+        <f>H23/I23</f>
+        <v>3.1907671418873047</v>
+      </c>
+      <c r="F37" s="7">
+        <f>J23/K23</f>
+        <v>3.0775171624713957</v>
+      </c>
+      <c r="G37" s="7">
+        <f>L23/M23</f>
+        <v>3.0704252453338463</v>
+      </c>
+      <c r="H37" s="7">
+        <f>N23/O23</f>
+        <v>3.6035778175313058</v>
+      </c>
+      <c r="I37" s="8">
+        <f>P23/Q23</f>
+        <v>3.1638437195231175</v>
+      </c>
+      <c r="J37" s="7">
+        <f>R23/S23</f>
+        <v>2.7127848391159968</v>
+      </c>
+      <c r="K37" s="7">
+        <f>T23/U23</f>
+        <v>2.8117666919895332</v>
+      </c>
+      <c r="L37" s="7">
+        <f>V23/W23</f>
+        <v>3.9284162240463543</v>
+      </c>
+      <c r="M37" s="8">
+        <f>X23/Y23</f>
+        <v>2.9169678368414362</v>
+      </c>
+      <c r="N37" s="7">
+        <f>Z23/AA23</f>
+        <v>3.0995804115415564</v>
+      </c>
+      <c r="O37" s="7">
+        <f>AB23/AC23</f>
+        <v>3.2228305502326853</v>
+      </c>
+      <c r="P37" s="7">
+        <f>AD23/AE23</f>
+        <v>2.8339823008849558</v>
+      </c>
+      <c r="Q37" s="6">
+        <f>AF23/AG23</f>
+        <v>3.0829799004241196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9606066574748868</v>
+      </c>
+      <c r="C38" s="7">
+        <f>D24/E24</f>
+        <v>3.7939778129952457</v>
+      </c>
+      <c r="D38" s="7">
+        <f>F24/G24</f>
+        <v>5.0391227030231178</v>
+      </c>
+      <c r="E38" s="8">
+        <f>H24/I24</f>
+        <v>3.5058823529411764</v>
+      </c>
+      <c r="F38" s="7">
+        <f>J24/K24</f>
+        <v>3.4739287558079504</v>
+      </c>
+      <c r="G38" s="7">
+        <f>L24/M24</f>
+        <v>2.5658536585365854</v>
+      </c>
+      <c r="H38" s="7">
+        <f>N24/O24</f>
+        <v>3.0971316818774448</v>
+      </c>
+      <c r="I38" s="8">
+        <f>P24/Q24</f>
+        <v>3.2438508625486921</v>
+      </c>
+      <c r="J38" s="7">
+        <f>R24/S24</f>
+        <v>2.6505968778696052</v>
+      </c>
+      <c r="K38" s="7">
+        <f>T24/U24</f>
+        <v>3.3312262958280656</v>
+      </c>
+      <c r="L38" s="7">
+        <f>V24/W24</f>
+        <v>4.1373913043478261</v>
+      </c>
+      <c r="M38" s="8">
+        <f>X24/Y24</f>
+        <v>3.102153667054715</v>
+      </c>
+      <c r="N38" s="7">
+        <f>Z24/AA24</f>
+        <v>4.6209819851642528</v>
+      </c>
+      <c r="O38" s="7">
+        <f>AB24/AC24</f>
+        <v>2.9752202643171808</v>
+      </c>
+      <c r="P38" s="7">
+        <f>AD24/AE24</f>
+        <v>3.5221556886227545</v>
+      </c>
+      <c r="Q38" s="6">
+        <f>AF24/AG24</f>
+        <v>3.9084275811747538</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9391829877261486</v>
+      </c>
+      <c r="C39" s="7">
+        <f>D25/E25</f>
+        <v>3.2700910688608404</v>
+      </c>
+      <c r="D39" s="7">
+        <f>F25/G25</f>
+        <v>3.3355464889384456</v>
+      </c>
+      <c r="E39" s="8">
+        <f>H25/I25</f>
+        <v>3.0631089333533614</v>
+      </c>
+      <c r="F39" s="7">
+        <f>J25/K25</f>
+        <v>2.8452253378579506</v>
+      </c>
+      <c r="G39" s="7">
+        <f>L25/M25</f>
+        <v>3.0751734150669461</v>
+      </c>
+      <c r="H39" s="7">
+        <f>N25/O25</f>
+        <v>3.500691820552392</v>
+      </c>
+      <c r="I39" s="8">
+        <f>P25/Q25</f>
+        <v>3.0017196099589558</v>
+      </c>
+      <c r="J39" s="7">
+        <f>R25/S25</f>
+        <v>2.824914351817521</v>
+      </c>
+      <c r="K39" s="7">
+        <f>T25/U25</f>
+        <v>2.9089167845355965</v>
+      </c>
+      <c r="L39" s="7">
+        <f>V25/W25</f>
+        <v>3.7107455786701071</v>
+      </c>
+      <c r="M39" s="8">
+        <f>X25/Y25</f>
+        <v>2.9987475484960875</v>
+      </c>
+      <c r="N39" s="7">
+        <f>Z25/AA25</f>
+        <v>2.8478464992855685</v>
+      </c>
+      <c r="O39" s="7">
+        <f>AB25/AC25</f>
+        <v>3.1716107484439044</v>
+      </c>
+      <c r="P39" s="7">
+        <f>AD25/AE25</f>
+        <v>3.2581597415617689</v>
+      </c>
+      <c r="Q39" s="6">
+        <f>AF25/AG25</f>
+        <v>2.9655257097579848</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="117" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="8.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,7 +4146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -663,13 +4166,13 @@
         <v>65659</v>
       </c>
       <c r="G2">
-        <v>6811.757710018758</v>
+        <v>6811.7577100187582</v>
       </c>
       <c r="H2">
         <v>11205.34143298086</v>
       </c>
       <c r="I2">
-        <v>6.306654298585205</v>
+        <v>6.3066542985852054</v>
       </c>
       <c r="J2">
         <v>21110</v>
@@ -678,7 +4181,7 @@
         <v>3.110326859308385</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -698,10 +4201,10 @@
         <v>12277</v>
       </c>
       <c r="G3">
-        <v>2397.955431195501</v>
+        <v>2397.9554311955012</v>
       </c>
       <c r="H3">
-        <v>3944.636684316599</v>
+        <v>3944.6366843165988</v>
       </c>
       <c r="I3">
         <v>11.8736146157876</v>
@@ -713,7 +4216,7 @@
         <v>3.869208950520012</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -733,22 +4236,22 @@
         <v>17560</v>
       </c>
       <c r="G4">
-        <v>2733.395525715223</v>
+        <v>2733.3955257152229</v>
       </c>
       <c r="H4">
-        <v>4496.435639801542</v>
+        <v>4496.4356398015416</v>
       </c>
       <c r="I4">
-        <v>9.462634495763455</v>
+        <v>9.4626344957634547</v>
       </c>
       <c r="J4">
         <v>4998</v>
       </c>
       <c r="K4">
-        <v>3.513405362144858</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>3.5134053621448582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -768,13 +4271,13 @@
         <v>137285</v>
       </c>
       <c r="G5">
-        <v>7832.446811182313</v>
+        <v>7832.4468111823126</v>
       </c>
       <c r="H5">
-        <v>12884.37500439491</v>
+        <v>12884.375004394909</v>
       </c>
       <c r="I5">
-        <v>3.468234579643822</v>
+        <v>3.4682345796438221</v>
       </c>
       <c r="J5">
         <v>47558</v>
@@ -783,7 +4286,7 @@
         <v>2.88668573110728</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -806,7 +4309,7 @@
         <v>2872.498920800494</v>
       </c>
       <c r="H6">
-        <v>4725.260724716812</v>
+        <v>4725.2607247168116</v>
       </c>
       <c r="I6">
         <v>10.11058972760352</v>
@@ -815,10 +4318,10 @@
         <v>4293</v>
       </c>
       <c r="K6">
-        <v>4.023060796645702</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>4.0230607966457024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -838,22 +4341,22 @@
         <v>46992</v>
       </c>
       <c r="G7">
-        <v>4854.631690458093</v>
+        <v>4854.6316904580926</v>
       </c>
       <c r="H7">
-        <v>7985.869130803562</v>
+        <v>7985.8691308035623</v>
       </c>
       <c r="I7">
-        <v>6.280098495013951</v>
+        <v>6.2800984950139513</v>
       </c>
       <c r="J7">
         <v>14147</v>
       </c>
       <c r="K7">
-        <v>3.321693645295822</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>3.3216936452958219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -873,22 +4376,22 @@
         <v>78530</v>
       </c>
       <c r="G8">
-        <v>6042.501038477362</v>
+        <v>6042.5010384773623</v>
       </c>
       <c r="H8">
-        <v>9939.91420829526</v>
+        <v>9939.9142082952603</v>
       </c>
       <c r="I8">
-        <v>4.677515485710541</v>
+        <v>4.6775154857105408</v>
       </c>
       <c r="J8">
         <v>29577</v>
       </c>
       <c r="K8">
-        <v>2.655103627818913</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>2.6551036278189128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -908,22 +4411,22 @@
         <v>18804</v>
       </c>
       <c r="G9">
-        <v>2244.042279013477</v>
+        <v>2244.0422790134771</v>
       </c>
       <c r="H9">
-        <v>3691.44954897717</v>
+        <v>3691.4495489771698</v>
       </c>
       <c r="I9">
-        <v>7.254623697775862</v>
+        <v>7.2546236977758616</v>
       </c>
       <c r="J9">
         <v>5764</v>
       </c>
       <c r="K9">
-        <v>3.262317834836919</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>3.2623178348369191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -943,13 +4446,13 @@
         <v>30069</v>
       </c>
       <c r="G10">
-        <v>3410.381115066174</v>
+        <v>3410.3811150661741</v>
       </c>
       <c r="H10">
-        <v>5610.076934283857</v>
+        <v>5610.0769342838566</v>
       </c>
       <c r="I10">
-        <v>6.894742123644845</v>
+        <v>6.8947421236448454</v>
       </c>
       <c r="J10">
         <v>10858</v>
@@ -958,7 +4461,7 @@
         <v>2.769294529379259</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -978,13 +4481,13 @@
         <v>81374</v>
       </c>
       <c r="G11">
-        <v>6030.743988099644</v>
+        <v>6030.7439880996444</v>
       </c>
       <c r="H11">
-        <v>9920.573860423914</v>
+        <v>9920.5738604239141</v>
       </c>
       <c r="I11">
-        <v>4.505254464376494</v>
+        <v>4.5052544643764936</v>
       </c>
       <c r="J11">
         <v>25244</v>
@@ -993,7 +4496,7 @@
         <v>3.223498653145302</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1019,16 +4522,16 @@
         <v>6215.809198394848</v>
       </c>
       <c r="I12">
-        <v>7.380239636488064</v>
+        <v>7.3802396364880636</v>
       </c>
       <c r="J12">
         <v>11175</v>
       </c>
       <c r="K12">
-        <v>2.785145413870246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>2.7851454138702461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1048,13 +4551,13 @@
         <v>28502</v>
       </c>
       <c r="G13">
-        <v>3819.936733769291</v>
+        <v>3819.9367337692911</v>
       </c>
       <c r="H13">
-        <v>6283.795927050484</v>
+        <v>6283.7959270504844</v>
       </c>
       <c r="I13">
-        <v>8.147322960260009</v>
+        <v>8.1473229602600092</v>
       </c>
       <c r="J13">
         <v>7771</v>
@@ -1063,7 +4566,7 @@
         <v>3.667739029725904</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1083,22 +4586,22 @@
         <v>15031</v>
       </c>
       <c r="G14">
-        <v>2098.63988097053</v>
+        <v>2098.6398809705302</v>
       </c>
       <c r="H14">
-        <v>3452.262604196521</v>
+        <v>3452.2626041965209</v>
       </c>
       <c r="I14">
-        <v>8.487585154694603</v>
+        <v>8.4875851546946031</v>
       </c>
       <c r="J14">
         <v>5077</v>
       </c>
       <c r="K14">
-        <v>2.960606657474887</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>2.9606066574748868</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1118,22 +4621,22 @@
         <v>2394</v>
       </c>
       <c r="G15">
-        <v>918.1583196813064</v>
+        <v>918.15831968130635</v>
       </c>
       <c r="H15">
-        <v>1510.370435875749</v>
+        <v>1510.3704358757491</v>
       </c>
       <c r="I15">
-        <v>23.31457619939683</v>
+        <v>23.314576199396829</v>
       </c>
       <c r="J15">
         <v>631</v>
       </c>
       <c r="K15">
-        <v>3.793977812995246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>3.7939778129952462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1153,10 +4656,10 @@
         <v>8501</v>
       </c>
       <c r="G16">
-        <v>3018.090919770311</v>
+        <v>3018.0909197703108</v>
       </c>
       <c r="H16">
-        <v>4964.759563022161</v>
+        <v>4964.7595630221613</v>
       </c>
       <c r="I16">
         <v>21.58223416426468</v>
@@ -1165,10 +4668,10 @@
         <v>1687</v>
       </c>
       <c r="K16">
-        <v>5.039122703023118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>5.0391227030231178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1188,10 +4691,10 @@
         <v>62575</v>
       </c>
       <c r="G17">
-        <v>5525.484191453271</v>
+        <v>5525.4841914532708</v>
       </c>
       <c r="H17">
-        <v>9089.421494940631</v>
+        <v>9089.4214949406305</v>
       </c>
       <c r="I17">
         <v>5.36788966087214</v>
@@ -1200,10 +4703,10 @@
         <v>19935</v>
       </c>
       <c r="K17">
-        <v>3.138951592676197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>3.1389515926761971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1223,10 +4726,10 @@
         <v>15587</v>
       </c>
       <c r="G18">
-        <v>2761.211925948459</v>
+        <v>2761.2119259484589</v>
       </c>
       <c r="H18">
-        <v>4542.193618185216</v>
+        <v>4542.1936181852161</v>
       </c>
       <c r="I18">
         <v>10.76889897511608</v>
@@ -1235,10 +4738,10 @@
         <v>4435</v>
       </c>
       <c r="K18">
-        <v>3.514543404735062</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>3.5145434047350621</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1258,22 +4761,22 @@
         <v>21477</v>
       </c>
       <c r="G19">
-        <v>3684.889096024465</v>
+        <v>3684.8890960244648</v>
       </c>
       <c r="H19">
-        <v>6061.642562960245</v>
+        <v>6061.6425629602454</v>
       </c>
       <c r="I19">
-        <v>10.43001425579457</v>
+        <v>10.430014255794569</v>
       </c>
       <c r="J19">
         <v>4788</v>
       </c>
       <c r="K19">
-        <v>4.485588972431078</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>4.4855889724310778</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1293,7 +4796,7 @@
         <v>115027</v>
       </c>
       <c r="G20">
-        <v>6096.71361062663</v>
+        <v>6096.7136106266298</v>
       </c>
       <c r="H20">
         <v>10029.09388948081</v>
@@ -1305,10 +4808,10 @@
         <v>41857</v>
       </c>
       <c r="K20">
-        <v>2.748094703394892</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>2.7480947033948921</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1331,19 +4834,19 @@
         <v>2996.578999459216</v>
       </c>
       <c r="H21">
-        <v>4929.372454110411</v>
+        <v>4929.3724541104111</v>
       </c>
       <c r="I21">
-        <v>8.941824912133455</v>
+        <v>8.9418249121334554</v>
       </c>
       <c r="J21">
         <v>6418</v>
       </c>
       <c r="K21">
-        <v>3.174197569336242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>3.1741975693362421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1366,19 +4869,19 @@
         <v>5225.675965844036</v>
       </c>
       <c r="H22">
-        <v>8596.236963813439</v>
+        <v>8596.2369638134387</v>
       </c>
       <c r="I22">
-        <v>6.759804900197484</v>
+        <v>6.7598049001974836</v>
       </c>
       <c r="J22">
         <v>14344</v>
       </c>
       <c r="K22">
-        <v>3.276213050752928</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>3.2762130507529279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1401,7 +4904,7 @@
         <v>5615.093320684884</v>
       </c>
       <c r="H23">
-        <v>9236.828512526634</v>
+        <v>9236.8285125266339</v>
       </c>
       <c r="I23">
         <v>3.891723395373385</v>
@@ -1410,10 +4913,10 @@
         <v>35309</v>
       </c>
       <c r="K23">
-        <v>2.484069217479963</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>2.4840692174799628</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1433,22 +4936,22 @@
         <v>23234</v>
       </c>
       <c r="G24">
-        <v>2668.541352499526</v>
+        <v>2668.5413524995261</v>
       </c>
       <c r="H24">
-        <v>4389.750524861721</v>
+        <v>4389.7505248617208</v>
       </c>
       <c r="I24">
-        <v>6.982067608442836</v>
+        <v>6.9820676084428364</v>
       </c>
       <c r="J24">
         <v>8108</v>
       </c>
       <c r="K24">
-        <v>2.865564874198323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>2.8655648741983231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1468,22 +4971,22 @@
         <v>28125</v>
       </c>
       <c r="G25">
-        <v>2908.876484142976</v>
+        <v>2908.8764841429761</v>
       </c>
       <c r="H25">
-        <v>4785.101816415195</v>
+        <v>4785.1018164151947</v>
       </c>
       <c r="I25">
-        <v>6.287338567549829</v>
+        <v>6.2873385675498286</v>
       </c>
       <c r="J25">
         <v>8531</v>
       </c>
       <c r="K25">
-        <v>3.296799906224358</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>3.2967999062243578</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1503,22 +5006,22 @@
         <v>96831</v>
       </c>
       <c r="G26">
-        <v>7244.651637587553</v>
+        <v>7244.6516375875526</v>
       </c>
       <c r="H26">
         <v>11917.45194383152</v>
       </c>
       <c r="I26">
-        <v>4.548175221453297</v>
+        <v>4.5481752214532971</v>
       </c>
       <c r="J26">
         <v>31464</v>
       </c>
       <c r="K26">
-        <v>3.077517162471396</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>3.0775171624713962</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1538,22 +5041,22 @@
         <v>31914</v>
       </c>
       <c r="G27">
-        <v>4012.671734642643</v>
+        <v>4012.6717346426431</v>
       </c>
       <c r="H27">
-        <v>6600.845003487148</v>
+        <v>6600.8450034871476</v>
       </c>
       <c r="I27">
-        <v>7.643398271613782</v>
+        <v>7.6433982716137816</v>
       </c>
       <c r="J27">
         <v>10394</v>
       </c>
       <c r="K27">
-        <v>3.070425245333846</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>3.0704252453338459</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1573,22 +5076,22 @@
         <v>30216</v>
       </c>
       <c r="G28">
-        <v>3486.2357851987</v>
+        <v>3486.2357851986999</v>
       </c>
       <c r="H28">
-        <v>5734.857866651862</v>
+        <v>5734.8578666518624</v>
       </c>
       <c r="I28">
-        <v>7.013808150110895</v>
+        <v>7.0138081501108953</v>
       </c>
       <c r="J28">
         <v>8385</v>
       </c>
       <c r="K28">
-        <v>3.603577817531306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>3.6035778175313058</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1608,22 +5111,22 @@
         <v>20187</v>
       </c>
       <c r="G29">
-        <v>3246.852452760981</v>
+        <v>3246.8524527609811</v>
       </c>
       <c r="H29">
-        <v>5341.072284791814</v>
+        <v>5341.0722847918141</v>
       </c>
       <c r="I29">
-        <v>9.777433437363632</v>
+        <v>9.7774334373636318</v>
       </c>
       <c r="J29">
         <v>5811</v>
       </c>
       <c r="K29">
-        <v>3.47392875580795</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>3.4739287558079499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1643,13 +5146,13 @@
         <v>4208</v>
       </c>
       <c r="G30">
-        <v>1264.39799904935</v>
+        <v>1264.3979990493499</v>
       </c>
       <c r="H30">
-        <v>2079.934708436181</v>
+        <v>2079.9347084361812</v>
       </c>
       <c r="I30">
-        <v>18.26594587598885</v>
+        <v>18.265945875988852</v>
       </c>
       <c r="J30">
         <v>1640</v>
@@ -1658,7 +5161,7 @@
         <v>2.565853658536585</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1678,10 +5181,10 @@
         <v>4751</v>
       </c>
       <c r="G31">
-        <v>1137.970254444289</v>
+        <v>1137.9702544442889</v>
       </c>
       <c r="H31">
-        <v>1871.961068560856</v>
+        <v>1871.9610685608559</v>
       </c>
       <c r="I31">
         <v>14.56062367217894</v>
@@ -1690,10 +5193,10 @@
         <v>1534</v>
       </c>
       <c r="K31">
-        <v>3.097131681877445</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>3.0971316818774448</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1713,13 +5216,13 @@
         <v>55712</v>
       </c>
       <c r="G32">
-        <v>6173.833776511966</v>
+        <v>6173.8337765119659</v>
       </c>
       <c r="H32">
         <v>10155.95656236218</v>
       </c>
       <c r="I32">
-        <v>6.736592550345727</v>
+        <v>6.7365925503457271</v>
       </c>
       <c r="J32">
         <v>16232</v>
@@ -1728,7 +5231,7 @@
         <v>3.432232626909808</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1748,22 +5251,22 @@
         <v>16022</v>
       </c>
       <c r="G33">
-        <v>2357.052099551472</v>
+        <v>2357.0520995514721</v>
       </c>
       <c r="H33">
-        <v>3877.350703762171</v>
+        <v>3877.3507037621712</v>
       </c>
       <c r="I33">
-        <v>8.943068400825277</v>
+        <v>8.9430684008252772</v>
       </c>
       <c r="J33">
         <v>5968</v>
       </c>
       <c r="K33">
-        <v>2.684651474530831</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>2.6846514745308312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1783,22 +5286,22 @@
         <v>22745</v>
       </c>
       <c r="G34">
-        <v>3929.31128825396</v>
+        <v>3929.3112882539599</v>
       </c>
       <c r="H34">
-        <v>6463.717069177765</v>
+        <v>6463.7170691777646</v>
       </c>
       <c r="I34">
-        <v>10.50182053640557</v>
+        <v>10.501820536405569</v>
       </c>
       <c r="J34">
         <v>5501</v>
       </c>
       <c r="K34">
-        <v>4.134702781312488</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>4.1347027813124884</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1818,22 +5321,22 @@
         <v>129290</v>
       </c>
       <c r="G35">
-        <v>7407.742402378743</v>
+        <v>7407.7424023787426</v>
       </c>
       <c r="H35">
-        <v>12185.73625191303</v>
+        <v>12185.736251913029</v>
       </c>
       <c r="I35">
-        <v>3.483012507345469</v>
+        <v>3.4830125073454692</v>
       </c>
       <c r="J35">
         <v>48490</v>
       </c>
       <c r="K35">
-        <v>2.666322953186224</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>2.6663229531862238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1853,22 +5356,22 @@
         <v>26284</v>
       </c>
       <c r="G36">
-        <v>3775.100607930867</v>
+        <v>3775.1006079308672</v>
       </c>
       <c r="H36">
-        <v>6210.040500046276</v>
+        <v>6210.0405000462761</v>
       </c>
       <c r="I36">
-        <v>8.731144371420307</v>
+        <v>8.7311443714203065</v>
       </c>
       <c r="J36">
         <v>8625</v>
       </c>
       <c r="K36">
-        <v>3.047420289855073</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>3.0474202898550731</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1888,13 +5391,13 @@
         <v>43947</v>
       </c>
       <c r="G37">
-        <v>5094.322246383713</v>
+        <v>5094.3222463837128</v>
       </c>
       <c r="H37">
-        <v>8380.160095301208</v>
+        <v>8380.1600953012075</v>
       </c>
       <c r="I37">
-        <v>7.046789153782036</v>
+        <v>7.0467891537820364</v>
       </c>
       <c r="J37">
         <v>11851</v>
@@ -1903,7 +5406,7 @@
         <v>3.708294658678593</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1923,22 +5426,22 @@
         <v>89640</v>
       </c>
       <c r="G38">
-        <v>7657.320921836827</v>
+        <v>7657.3209218368274</v>
       </c>
       <c r="H38">
         <v>12596.29291642158</v>
       </c>
       <c r="I38">
-        <v>5.192889709351983</v>
+        <v>5.1928897093519826</v>
       </c>
       <c r="J38">
         <v>30844</v>
       </c>
       <c r="K38">
-        <v>2.906237842043833</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>2.9062378420438328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1961,19 +5464,19 @@
         <v>1954.069919424584</v>
       </c>
       <c r="H39">
-        <v>3214.445017453441</v>
+        <v>3214.4450174534409</v>
       </c>
       <c r="I39">
-        <v>5.804468358163827</v>
+        <v>5.8044683581638266</v>
       </c>
       <c r="J39">
         <v>6705</v>
       </c>
       <c r="K39">
-        <v>3.052199850857569</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>3.0521998508575692</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1993,13 +5496,13 @@
         <v>31690</v>
       </c>
       <c r="G40">
-        <v>3160.440950247291</v>
+        <v>3160.4409502472909</v>
       </c>
       <c r="H40">
-        <v>5198.925363156794</v>
+        <v>5198.9253631567944</v>
       </c>
       <c r="I40">
-        <v>6.062608706968995</v>
+        <v>6.0626087069689953</v>
       </c>
       <c r="J40">
         <v>9845</v>
@@ -2008,7 +5511,7 @@
         <v>3.218892839004571</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2028,10 +5531,10 @@
         <v>94763</v>
       </c>
       <c r="G41">
-        <v>5718.152297726951</v>
+        <v>5718.1522977269506</v>
       </c>
       <c r="H41">
-        <v>9406.360529760834</v>
+        <v>9406.3605297608337</v>
       </c>
       <c r="I41">
         <v>3.668183177136775</v>
@@ -2040,10 +5543,10 @@
         <v>34932</v>
       </c>
       <c r="K41">
-        <v>2.712784839115997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>2.7127848391159972</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2063,22 +5566,22 @@
         <v>33311</v>
       </c>
       <c r="G42">
-        <v>4197.772087667457</v>
+        <v>4197.7720876674566</v>
       </c>
       <c r="H42">
-        <v>6905.335084212967</v>
+        <v>6905.3350842129666</v>
       </c>
       <c r="I42">
-        <v>7.660644037585651</v>
+        <v>7.6606440375856506</v>
       </c>
       <c r="J42">
         <v>11847</v>
       </c>
       <c r="K42">
-        <v>2.811766691989533</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>2.8117666919895332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2098,22 +5601,22 @@
         <v>32543</v>
       </c>
       <c r="G43">
-        <v>3720.748493247024</v>
+        <v>3720.7484932470238</v>
       </c>
       <c r="H43">
-        <v>6120.631271391354</v>
+        <v>6120.6312713913539</v>
       </c>
       <c r="I43">
-        <v>6.950352417983003</v>
+        <v>6.9503524179830034</v>
       </c>
       <c r="J43">
         <v>8284</v>
       </c>
       <c r="K43">
-        <v>3.928416224046354</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>3.9284162240463538</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2133,22 +5636,22 @@
         <v>11546</v>
       </c>
       <c r="G44">
-        <v>2145.33697819247</v>
+        <v>2145.3369781924698</v>
       </c>
       <c r="H44">
-        <v>3529.079329126614</v>
+        <v>3529.0793291266141</v>
       </c>
       <c r="I44">
-        <v>11.29530761948885</v>
+        <v>11.295307619488851</v>
       </c>
       <c r="J44">
         <v>4356</v>
       </c>
       <c r="K44">
-        <v>2.650596877869605</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>2.6505968778696052</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2168,22 +5671,22 @@
         <v>2635</v>
       </c>
       <c r="G45">
-        <v>828.8148164698795</v>
+        <v>828.81481646987947</v>
       </c>
       <c r="H45">
-        <v>1363.400373092952</v>
+        <v>1363.4003730929519</v>
       </c>
       <c r="I45">
-        <v>19.121016857936</v>
+        <v>19.121016857935999</v>
       </c>
       <c r="J45">
         <v>791</v>
       </c>
       <c r="K45">
-        <v>3.331226295828066</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>3.3312262958280661</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2203,22 +5706,22 @@
         <v>7137</v>
       </c>
       <c r="G46">
-        <v>2147.552874785624</v>
+        <v>2147.5528747856242</v>
       </c>
       <c r="H46">
-        <v>3532.724479022352</v>
+        <v>3532.7244790223522</v>
       </c>
       <c r="I46">
-        <v>18.29204521993672</v>
+        <v>18.292045219936721</v>
       </c>
       <c r="J46">
         <v>1725</v>
       </c>
       <c r="K46">
-        <v>4.137391304347826</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>4.1373913043478261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2238,10 +5741,10 @@
         <v>66471</v>
       </c>
       <c r="G47">
-        <v>5954.707897957715</v>
+        <v>5954.7078979577154</v>
       </c>
       <c r="H47">
-        <v>9795.494492140442</v>
+        <v>9795.4944921404422</v>
       </c>
       <c r="I47">
         <v>5.445808278261179</v>
@@ -2253,7 +5756,7 @@
         <v>2.887658021634302</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2273,13 +5776,13 @@
         <v>18107</v>
       </c>
       <c r="G48">
-        <v>2958.877954563182</v>
+        <v>2958.8779545631819</v>
       </c>
       <c r="H48">
-        <v>4867.354235256435</v>
+        <v>4867.3542352564345</v>
       </c>
       <c r="I48">
-        <v>9.933782530369308</v>
+        <v>9.9337825303693084</v>
       </c>
       <c r="J48">
         <v>5569</v>
@@ -2288,7 +5791,7 @@
         <v>3.251391632249955</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2308,13 +5811,13 @@
         <v>15549</v>
       </c>
       <c r="G49">
-        <v>2737.460465467949</v>
+        <v>2737.4604654679488</v>
       </c>
       <c r="H49">
-        <v>4503.122465694776</v>
+        <v>4503.1224656947761</v>
       </c>
       <c r="I49">
-        <v>10.70235838608039</v>
+        <v>10.702358386080389</v>
       </c>
       <c r="J49">
         <v>5311</v>
@@ -2323,7 +5826,7 @@
         <v>2.927697232159669</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2343,13 +5846,13 @@
         <v>136264</v>
       </c>
       <c r="G50">
-        <v>7638.523122960354</v>
+        <v>7638.5231229603542</v>
       </c>
       <c r="H50">
         <v>12565.37053726978</v>
       </c>
       <c r="I50">
-        <v>3.407707906786502</v>
+        <v>3.4077079067865021</v>
       </c>
       <c r="J50">
         <v>50902</v>
@@ -2358,7 +5861,7 @@
         <v>2.676987151781856</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2378,22 +5881,22 @@
         <v>20822</v>
       </c>
       <c r="G51">
-        <v>2865.916842827091</v>
+        <v>2865.9168428270909</v>
       </c>
       <c r="H51">
-        <v>4714.433206450564</v>
+        <v>4714.4332064505643</v>
       </c>
       <c r="I51">
-        <v>8.367105410857206</v>
+        <v>8.3671054108572065</v>
       </c>
       <c r="J51">
         <v>6361</v>
       </c>
       <c r="K51">
-        <v>3.273384687942147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>3.2733846879421469</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2413,13 +5916,13 @@
         <v>41226</v>
       </c>
       <c r="G52">
-        <v>5153.552590204159</v>
+        <v>5153.5525902041591</v>
       </c>
       <c r="H52">
-        <v>8477.594010885841</v>
+        <v>8477.5940108858413</v>
       </c>
       <c r="I52">
-        <v>7.5992303824027</v>
+        <v>7.5992303824027001</v>
       </c>
       <c r="J52">
         <v>10923</v>
@@ -2428,7 +5931,7 @@
         <v>3.774237846745399</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2448,13 +5951,13 @@
         <v>94878</v>
       </c>
       <c r="G53">
-        <v>6491.698729916538</v>
+        <v>6491.6987299165376</v>
       </c>
       <c r="H53">
-        <v>10678.84441071271</v>
+        <v>10678.844410712711</v>
       </c>
       <c r="I53">
-        <v>4.159364042625938</v>
+        <v>4.1593640426259384</v>
       </c>
       <c r="J53">
         <v>35422</v>
@@ -2463,7 +5966,7 @@
         <v>2.678504883970414</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2483,22 +5986,22 @@
         <v>24806</v>
       </c>
       <c r="G54">
-        <v>4024.884501448458</v>
+        <v>4024.8845014484582</v>
       </c>
       <c r="H54">
-        <v>6620.935004882713</v>
+        <v>6620.9350048827127</v>
       </c>
       <c r="I54">
-        <v>9.863493907735474</v>
+        <v>9.8634939077354744</v>
       </c>
       <c r="J54">
         <v>8230</v>
       </c>
       <c r="K54">
-        <v>3.014094775212637</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>3.0140947752126368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2518,22 +6021,22 @@
         <v>33260</v>
       </c>
       <c r="G55">
-        <v>4142.870255028511</v>
+        <v>4142.8702550285107</v>
       </c>
       <c r="H55">
-        <v>6815.0215695219</v>
+        <v>6815.0215695219003</v>
       </c>
       <c r="I55">
-        <v>7.572044982295721</v>
+        <v>7.5720449822957212</v>
       </c>
       <c r="J55">
         <v>10364</v>
       </c>
       <c r="K55">
-        <v>3.209185642609031</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>3.2091856426090311</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2553,22 +6056,22 @@
         <v>107853</v>
       </c>
       <c r="G56">
-        <v>7624.083361296623</v>
+        <v>7624.0833612966226</v>
       </c>
       <c r="H56">
-        <v>12541.61712933294</v>
+        <v>12541.617129332941</v>
       </c>
       <c r="I56">
-        <v>4.297238956252778</v>
+        <v>4.2972389562527784</v>
       </c>
       <c r="J56">
         <v>34796</v>
       </c>
       <c r="K56">
-        <v>3.099580411541556</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>3.0995804115415559</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2588,22 +6091,22 @@
         <v>35319</v>
       </c>
       <c r="G57">
-        <v>4281.55497453904</v>
+        <v>4281.5549745390399</v>
       </c>
       <c r="H57">
-        <v>7043.15793311672</v>
+        <v>7043.1579331167204</v>
       </c>
       <c r="I57">
-        <v>7.369316745895124</v>
+        <v>7.3693167458951239</v>
       </c>
       <c r="J57">
         <v>10959</v>
       </c>
       <c r="K57">
-        <v>3.222830550232685</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>3.2228305502326848</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2623,22 +6126,22 @@
         <v>24018</v>
       </c>
       <c r="G58">
-        <v>3007.531404657315</v>
+        <v>3007.5314046573149</v>
       </c>
       <c r="H58">
-        <v>4947.389160661283</v>
+        <v>4947.3891606612833</v>
       </c>
       <c r="I58">
-        <v>7.61215158706278</v>
+        <v>7.6121515870627796</v>
       </c>
       <c r="J58">
         <v>8475</v>
       </c>
       <c r="K58">
-        <v>2.833982300884956</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>2.8339823008849558</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2658,22 +6161,22 @@
         <v>13082</v>
       </c>
       <c r="G59">
-        <v>3509.793669149228</v>
+        <v>3509.7936691492282</v>
       </c>
       <c r="H59">
-        <v>5773.61058575048</v>
+        <v>5773.6105857504799</v>
       </c>
       <c r="I59">
-        <v>16.3095335020264</v>
+        <v>16.309533502026401</v>
       </c>
       <c r="J59">
         <v>2831</v>
       </c>
       <c r="K59">
-        <v>4.620981985164253</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>4.6209819851642528</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2693,22 +6196,22 @@
         <v>5403</v>
       </c>
       <c r="G60">
-        <v>1777.954175449975</v>
+        <v>1777.9541754499751</v>
       </c>
       <c r="H60">
         <v>2924.734618615209</v>
       </c>
       <c r="I60">
-        <v>20.00413116713809</v>
+        <v>20.004131167138091</v>
       </c>
       <c r="J60">
         <v>1816</v>
       </c>
       <c r="K60">
-        <v>2.975220264317181</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>2.9752202643171808</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2728,13 +6231,13 @@
         <v>2941</v>
       </c>
       <c r="G61">
-        <v>815.6442545619997</v>
+        <v>815.64425456199967</v>
       </c>
       <c r="H61">
         <v>1341.734798754489</v>
       </c>
       <c r="I61">
-        <v>16.85931226092896</v>
+        <v>16.859312260928959</v>
       </c>
       <c r="J61">
         <v>835</v>
